--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+  <si>
+    <t xml:space="preserve">nro</t>
+  </si>
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -31,6 +35,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -73,6 +80,9 @@
     <t xml:space="preserve">48702442@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarde 15:30</t>
   </si>
   <si>
@@ -272,15 +282,34 @@
   </si>
   <si>
     <t xml:space="preserve">lucianovel31@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipos de error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error absoluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incertidumbre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -348,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +390,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,6 +407,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -378,21 +492,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -401,381 +516,550 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>45790</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
-        <f aca="false">COUNTIF(D2:D27,"P")</f>
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E27,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G27,"P")</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -787,4 +1071,796 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C2:F2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f aca="false">IF(G2&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C3:F3),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f aca="false">IF(G3&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C4:F4),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f aca="false">IF(G4&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C5:F5),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f aca="false">IF(G5&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C6:F6),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f aca="false">IF(G6&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7:F7),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f aca="false">IF(G7&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C8:F8),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f aca="false">IF(G8&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C9:F9),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f aca="false">IF(G9&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10:F10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f aca="false">IF(G10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11:F11),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f aca="false">IF(G11&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12:F12),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f aca="false">IF(G12&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13:F13),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f aca="false">IF(G13&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14:F14),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f aca="false">IF(G14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15:F15),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f aca="false">IF(G15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16:F16),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f aca="false">IF(G16&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17:F17),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f aca="false">IF(G17&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18:F18),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f aca="false">IF(G18&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19:F19),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f aca="false">IF(G19&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20:F20),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f aca="false">IF(G20&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21:F21),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f aca="false">IF(G21&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22:F22),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f aca="false">IF(G22&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23:F23),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f aca="false">IF(G23&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C24:F24),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f aca="false">IF(G24&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C25:F25),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f aca="false">IF(G25&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C26:F26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f aca="false">IF(G26&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C27:F27),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f aca="false">IF(G27&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G27">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="positivos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Resistencias" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="123">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -287,29 +289,120 @@
     <t xml:space="preserve">tipos de error</t>
   </si>
   <si>
-    <t xml:space="preserve">error absoluto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incertidumbre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp1</t>
+    <t xml:space="preserve">Arinc 429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabajo a averiguar</t>
   </si>
   <si>
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
     <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asis+pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrego pasos con retraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no entrego los pasos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flux valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicion de capacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posiivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/10,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -377,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,11 +483,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,7 +512,36 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -423,6 +557,35 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -435,7 +598,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -492,15 +655,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
@@ -548,6 +711,10 @@
       <c r="G2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M2" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L2,I2,G2),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -568,6 +735,10 @@
       <c r="G3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M3" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L3,I3,G3),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -587,6 +758,10 @@
       </c>
       <c r="G4" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="M4" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L4,I4,G4),0)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,6 +786,10 @@
       <c r="G5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="M5" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L5,I5,G5),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -631,6 +810,10 @@
       <c r="G6" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M6" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L6,I6,G6),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -651,6 +834,10 @@
       <c r="G7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="M7" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L7,I7,G7),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -671,6 +858,10 @@
       <c r="G8" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M8" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L8,I8,G8),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -691,6 +882,10 @@
       <c r="G9" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M9" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L9,I9,G9),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -711,6 +906,10 @@
       <c r="G10" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M10" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L10,I10,G10),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -730,6 +929,10 @@
       </c>
       <c r="G11" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="M11" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L11,I11,G11),0)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,6 +954,10 @@
       <c r="G12" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M12" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L12,I12,G12),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -771,6 +978,10 @@
       <c r="G13" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M13" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L13,I13,G13),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -791,6 +1002,10 @@
       <c r="G14" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M14" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L14,I14,G14),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -811,6 +1026,10 @@
       <c r="G15" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M15" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L15,I15,G15),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -831,6 +1050,10 @@
       <c r="G16" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M16" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L16,I16,G16),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -851,6 +1074,10 @@
       <c r="G17" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M17" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L17,I17,G17),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -871,6 +1098,10 @@
       <c r="G18" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="M18" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L18,I18,G18),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -891,6 +1122,10 @@
       <c r="G19" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M19" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L19,I19,G19),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -911,6 +1146,10 @@
       <c r="G20" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M20" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L20,I20,G20),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -931,6 +1170,10 @@
       <c r="G21" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M21" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L21,I21,G21),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -951,6 +1194,10 @@
       <c r="G22" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M22" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L22,I22,G22),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -971,6 +1218,10 @@
       <c r="G23" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M23" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L23,I23,G23),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -991,6 +1242,10 @@
       <c r="G24" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M24" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L24,I24,G24),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1011,6 +1266,10 @@
       <c r="G25" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M25" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L25,I25,G25),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1031,6 +1290,10 @@
       <c r="G26" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M26" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L26,I26,G26),0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1050,6 +1313,10 @@
       </c>
       <c r="G27" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="M27" s="0" t="e">
+        <f aca="false">ROUND(AVERAGE(L27,I27,G27),0)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,20 +1345,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1104,19 +1372,34 @@
         <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1135,16 +1418,33 @@
       <c r="F2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C2:F2),0)</f>
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="5" t="str">
         <f aca="false">IF(G2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">J2+K2/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L2,I2,G2),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1163,16 +1463,33 @@
       <c r="F3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C3:F3),0)</f>
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="5" t="str">
         <f aca="false">IF(G3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">J3+K3/2</f>
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L3,I3,G3),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1180,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7</v>
@@ -1191,16 +1508,33 @@
       <c r="F4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4:F4),0)</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="str">
         <f aca="false">IF(G4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">J4+K4/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L4,I4,G4),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1219,16 +1553,33 @@
       <c r="F5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5:F5),0)</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="5" t="str">
         <f aca="false">IF(G5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">J5+K5/2</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L5,I5,G5),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1247,16 +1598,33 @@
       <c r="F6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6:F6),0)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="5" t="str">
         <f aca="false">IF(G6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">J6+K6/2</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L6,I6,G6),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1275,16 +1643,33 @@
       <c r="F7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7:F7),0)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="5" t="str">
         <f aca="false">IF(G7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">J7+K7/2</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L7,I7,G7),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1292,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -1303,16 +1688,33 @@
       <c r="F8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8:F8),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H8" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="str">
         <f aca="false">IF(G8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">J8+K8/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L8,I8,G8),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1322,25 +1724,36 @@
       <c r="C9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9:F9),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H9" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="str">
         <f aca="false">IF(G9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">J9+K9/2</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L9,I9,G9),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1348,27 +1761,44 @@
         <v>34</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10:F10),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H10" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="str">
         <f aca="false">IF(G10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">J10+K10/2</f>
+        <v>15.5</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L10,I10,G10),0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1387,472 +1817,762 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11:F11),0)</f>
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="5" t="str">
         <f aca="false">IF(G11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">J11+K11/2</f>
+        <v>7</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L11,I11,G11),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12:F12),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="str">
         <f aca="false">IF(G12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">J12+K12/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L12,I12,G12),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13:F13),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f aca="false">IF(G13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">J13+K13/2</f>
+        <v>8</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L13,I13,G13),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14:F14),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="str">
         <f aca="false">IF(G14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">J14+K14/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L14,I14,G14),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15:F15),0)</f>
-        <v>7</v>
-      </c>
-      <c r="H15" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="str">
         <f aca="false">IF(G15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">J15+K15/2</f>
+        <v>14.5</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L15,I15,G15),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="F16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16:F16),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H16" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5" t="str">
         <f aca="false">IF(G16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">J16+K16/2</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L16,I16,G16),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17:F17),0)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="5" t="str">
         <f aca="false">IF(G17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">J17+K17/2</f>
+        <v>8</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L17,I17,G17),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18:F18),0)</f>
-        <v>8</v>
-      </c>
-      <c r="H18" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="str">
         <f aca="false">IF(G18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">J18+K18/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L18,I18,G18),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C19:F19),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f aca="false">IF(G19&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">J19+K19/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L19,I19,G19),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C19:F19),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f aca="false">IF(G19&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C20:F20),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f aca="false">IF(G20&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">J20+K20/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L20,I20,G20),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C20:F20),0)</f>
-        <v>7</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f aca="false">IF(G20&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="G21" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C21:F21),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f aca="false">IF(G21&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">J21+K21/2</f>
+        <v>6</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L21,I21,G21),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C21:F21),0)</f>
-        <v>8</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f aca="false">IF(G21&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E22" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C22:F22),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="str">
         <f aca="false">IF(G22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">J22+K22/2</f>
+        <v>9</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L22,I22,G22),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C23:F23),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f aca="false">IF(G23&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">J23+K23/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L23,I23,G23),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C23:F23),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f aca="false">IF(G23&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C24:F24),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f aca="false">IF(G24&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">J24+K24/2</f>
+        <v>20.5</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L24,I24,G24),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C24:F24),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f aca="false">IF(G24&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C25" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C25:F25),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="str">
         <f aca="false">IF(G25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">J25+K25/2</f>
+        <v>19.5</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L25,I25,G25),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C26:F26),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H26" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="H26" s="5" t="str">
         <f aca="false">IF(G26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">J26+K26/2</f>
+        <v>15.5</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L26,I26,G26),0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>9</v>
+      <c r="E27" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C27:F27),0)</f>
-        <v>8</v>
-      </c>
-      <c r="H27" s="4" t="str">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f aca="false">IF(G27&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
+        <v>TEP</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">J27+K27/2</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(L27,I27,G27),0)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J26">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M27">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1863,4 +2583,1004 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">SUM(F2,D2,C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">SUM(F3,D3,C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">SUM(F4,D4,C4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">SUM(F5,D5,C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">SUM(F6,D6,C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">SUM(F7,D7,C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">SUM(F8,D8,C8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">SUM(F9,D9,C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">SUM(F10,D10,C10)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">SUM(F11,D11,C11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">SUM(F12,D12,C12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">SUM(F13,D13,C13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">SUM(F14,D14,C14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">SUM(F15,D15,C15)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">SUM(F16,D16,C16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">SUM(F17,D17,C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">SUM(F18,D18,C18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">SUM(F19,D19,C19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(F20,D20,C20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(F21,D21,C21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">SUM(F22,D22,C22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(F23,D23,C23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">SUM(F24,D24,C24)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">SUM(F25,D25,C25)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">SUM(F26,D26,C26)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">SUM(F27,D27,C27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -428,12 +428,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -470,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,15 +497,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,33 +514,19 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -571,6 +559,15 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -632,7 +629,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -658,10 +655,10 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="27:27 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -1348,14 +1345,16 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="27:27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="6" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1438,7 @@
         <f aca="false">J2+K2/2</f>
         <v>8.5</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L2,I2,G2),0)</f>
         <v>9</v>
       </c>
@@ -1484,7 +1483,7 @@
         <f aca="false">J3+K3/2</f>
         <v>7</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L3,I3,G3),0)</f>
         <v>7</v>
       </c>
@@ -1529,7 +1528,7 @@
         <f aca="false">J4+K4/2</f>
         <v>9.5</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L4,I4,G4),0)</f>
         <v>9</v>
       </c>
@@ -1574,12 +1573,12 @@
         <f aca="false">J5+K5/2</f>
         <v>3</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L5,I5,G5),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1619,7 +1618,7 @@
         <f aca="false">J6+K6/2</f>
         <v>8</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L6,I6,G6),0)</f>
         <v>7</v>
       </c>
@@ -1664,7 +1663,7 @@
         <f aca="false">J7+K7/2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L7,I7,G7),0)</f>
         <v>1</v>
       </c>
@@ -1709,7 +1708,7 @@
         <f aca="false">J8+K8/2</f>
         <v>8.5</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L8,I8,G8),0)</f>
         <v>9</v>
       </c>
@@ -1748,7 +1747,7 @@
         <f aca="false">J9+K9/2</f>
         <v>8</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L9,I9,G9),0)</f>
         <v>8</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>96</v>
@@ -1793,7 +1792,7 @@
         <f aca="false">J10+K10/2</f>
         <v>15.5</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L10,I10,G10),0)</f>
         <v>11</v>
       </c>
@@ -1838,7 +1837,7 @@
         <f aca="false">J11+K11/2</f>
         <v>7</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L11,I11,G11),0)</f>
         <v>7</v>
       </c>
@@ -1883,7 +1882,7 @@
         <f aca="false">J12+K12/2</f>
         <v>8.5</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L12,I12,G12),0)</f>
         <v>7</v>
       </c>
@@ -1921,16 +1920,16 @@
       <c r="J13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>2</v>
+      <c r="K13" s="6" t="n">
+        <v>8</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">J13+K13/2</f>
-        <v>8</v>
-      </c>
-      <c r="M13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L13,I13,G13),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>97</v>
@@ -1954,7 +1953,7 @@
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14:F14),0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" s="5" t="str">
         <f aca="false">IF(G14&lt;7,"TEP","TEA")</f>
@@ -1963,7 +1962,7 @@
       <c r="I14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K14" s="0" t="n">
@@ -1973,9 +1972,9 @@
         <f aca="false">J14+K14/2</f>
         <v>11.5</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L14,I14,G14),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,7 +2017,7 @@
         <f aca="false">J15+K15/2</f>
         <v>14.5</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L15,I15,G15),0)</f>
         <v>10</v>
       </c>
@@ -2060,7 +2059,7 @@
         <f aca="false">J16+K16/2</f>
         <v>5</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L16,I16,G16),0)</f>
         <v>7</v>
       </c>
@@ -2105,7 +2104,7 @@
         <f aca="false">J17+K17/2</f>
         <v>8</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L17,I17,G17),0)</f>
         <v>9</v>
       </c>
@@ -2150,7 +2149,7 @@
         <f aca="false">J18+K18/2</f>
         <v>6.5</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L18,I18,G18),0)</f>
         <v>8</v>
       </c>
@@ -2195,7 +2194,7 @@
         <f aca="false">J19+K19/2</f>
         <v>8.5</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L19,I19,G19),0)</f>
         <v>7</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>97</v>
@@ -2221,11 +2220,11 @@
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20:F20),0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H20" s="5" t="str">
         <f aca="false">IF(G20&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>9</v>
@@ -2240,9 +2239,9 @@
         <f aca="false">J20+K20/2</f>
         <v>11.5</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L20,I20,G20),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2284,7 @@
         <f aca="false">J21+K21/2</f>
         <v>6</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L21,I21,G21),0)</f>
         <v>7</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="I22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K22" s="0" t="n">
@@ -2330,7 +2329,7 @@
         <f aca="false">J22+K22/2</f>
         <v>9</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L22,I22,G22),0)</f>
         <v>9</v>
       </c>
@@ -2369,7 +2368,7 @@
         <f aca="false">J23+K23/2</f>
         <v>10.5</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L23,I23,G23),0)</f>
         <v>9</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>97</v>
@@ -2395,11 +2394,11 @@
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C24:F24),0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="str">
         <f aca="false">IF(G24&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>10</v>
@@ -2414,9 +2413,9 @@
         <f aca="false">J24+K24/2</f>
         <v>20.5</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L24,I24,G24),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,7 +2458,7 @@
         <f aca="false">J25+K25/2</f>
         <v>19.5</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L25,I25,G25),0)</f>
         <v>12</v>
       </c>
@@ -2504,7 +2503,7 @@
         <f aca="false">J26+K26/2</f>
         <v>15.5</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L26,I26,G26),0)</f>
         <v>11</v>
       </c>
@@ -2549,29 +2548,36 @@
         <f aca="false">J27+K27/2</f>
         <v>5</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L27,I27,G27),0)</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J26">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M27">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2593,10 +2599,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="27:27 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
@@ -2786,14 +2792,14 @@
         <v>43</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(F13,D13,C13)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +3055,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="27:27 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>

--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -655,10 +655,10 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="27:27 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -1342,13 +1342,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="27:27"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
@@ -1397,6 +1397,9 @@
       <c r="M1" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="N1" s="2" t="n">
+        <v>45874</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1577,6 +1580,9 @@
         <f aca="false">ROUND(AVERAGE(L5,I5,G5),0)</f>
         <v>4</v>
       </c>
+      <c r="N5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1666,6 +1672,9 @@
       <c r="M7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(L7,I7,G7),0)</f>
         <v>1</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2608,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="27:27 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
@@ -3055,10 +3064,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="27:27 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>

--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thaiel Omar</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t xml:space="preserve">thaielomar44@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">Franco Tomas</t>
@@ -652,18 +655,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,6 +691,12 @@
       <c r="G1" s="2" t="n">
         <v>45818</v>
       </c>
+      <c r="H1" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45902</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -708,9 +717,11 @@
       <c r="G2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L2,I2,G2),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,23 +729,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L3,I3,G3),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
@@ -756,9 +769,11 @@
       <c r="G4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L4,I4,G4),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,26 +781,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L5,I5,G5),0)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
@@ -807,9 +824,11 @@
       <c r="G6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L6,I6,G6),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,23 +836,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L7,I7,G7),0)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
@@ -855,9 +876,11 @@
       <c r="G8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L8,I8,G8),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,13 +888,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
@@ -879,9 +902,11 @@
       <c r="G9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L9,I9,G9),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,13 +914,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
@@ -903,9 +928,11 @@
       <c r="G10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L10,I10,G10),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,13 +940,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
@@ -927,9 +954,11 @@
       <c r="G11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L11,I11,G11),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,13 +966,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
@@ -951,9 +980,11 @@
       <c r="G12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L12,I12,G12),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,13 +992,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
@@ -975,9 +1006,11 @@
       <c r="G13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L13,I13,G13),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,13 +1018,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
@@ -999,9 +1032,11 @@
       <c r="G14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L14,I14,G14),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,13 +1044,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
@@ -1023,9 +1058,11 @@
       <c r="G15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L15,I15,G15),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,13 +1070,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
@@ -1047,9 +1084,11 @@
       <c r="G16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L16,I16,G16),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,13 +1096,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
@@ -1071,9 +1110,11 @@
       <c r="G17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L17,I17,G17),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,23 +1122,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L18,I18,G18),0)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,13 +1148,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
@@ -1119,9 +1162,11 @@
       <c r="G19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L19,I19,G19),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,13 +1174,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
@@ -1143,9 +1188,11 @@
       <c r="G20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L20,I20,G20),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,13 +1200,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
@@ -1167,9 +1214,11 @@
       <c r="G21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L21,I21,G21),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,13 +1226,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
@@ -1191,9 +1240,11 @@
       <c r="G22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L22,I22,G22),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,13 +1252,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
@@ -1215,9 +1266,11 @@
       <c r="G23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L23,I23,G23),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,13 +1278,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
@@ -1239,9 +1292,11 @@
       <c r="G24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L24,I24,G24),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1304,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -1263,9 +1318,11 @@
       <c r="G25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L25,I25,G25),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,13 +1330,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -1287,9 +1344,11 @@
       <c r="G26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L26,I26,G26),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,23 +1356,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="0" t="e">
-        <f aca="false">ROUND(AVERAGE(L27,I27,G27),0)</f>
-        <v>#DIV/0!</v>
+      <c r="H27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,6 +1385,14 @@
       <c r="G28" s="0" t="n">
         <f aca="false">COUNTIF(G2:G27,"P")</f>
         <v>23</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H27,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"P")</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1344,11 +1413,11 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
@@ -1365,37 +1434,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="N1" s="2" t="n">
         <v>45874</v>
@@ -1451,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6</v>
@@ -1496,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -1541,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6</v>
@@ -1581,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1589,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -1634,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1674,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -1727,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -1766,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -1775,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -1811,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -1856,7 +1925,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -1901,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -1946,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -1955,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -1991,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2036,7 +2105,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -2078,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -2123,7 +2192,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -2168,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2213,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -2222,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -2258,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -2303,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -2348,7 +2417,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2</v>
@@ -2387,7 +2456,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
@@ -2396,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -2432,7 +2501,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -2441,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -2477,7 +2546,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -2522,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -2531,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -2607,11 +2676,11 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
@@ -2625,19 +2694,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">SUM(F3,D3,C3)</f>
@@ -2672,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -2687,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">SUM(F5,D5,C5)</f>
@@ -2699,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(F6,D6,C6)</f>
@@ -2711,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(F7,D7,C7)</f>
@@ -2723,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -2738,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">SUM(F9,D9,C9)</f>
@@ -2750,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -2759,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">SUM(F10,D10,C10)</f>
@@ -2771,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">SUM(F11,D11,C11)</f>
@@ -2783,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -2798,13 +2867,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(F13,D13,C13)</f>
@@ -2816,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -2831,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2849,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">SUM(F16,D16,C16)</f>
@@ -2861,7 +2930,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">SUM(F17,D17,C17)</f>
@@ -2873,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -2888,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2897,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">SUM(F19,D19,C19)</f>
@@ -2909,7 +2978,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -2924,7 +2993,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">SUM(F21,D21,C21)</f>
@@ -2936,7 +3005,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -2951,7 +3020,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -2960,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">SUM(F23,D23,C23)</f>
@@ -2972,7 +3041,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
@@ -2981,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -2996,7 +3065,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -3017,7 +3086,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -3026,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">SUM(F26,D26,C26)</f>
@@ -3038,7 +3107,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">SUM(F27,D27,C27)</f>
@@ -3063,11 +3132,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
@@ -3081,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3112,16 +3181,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3132,16 +3201,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3152,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3163,16 +3232,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -3183,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3194,16 +3263,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -3214,16 +3283,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -3234,16 +3303,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3254,16 +3323,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -3274,16 +3343,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -3294,16 +3363,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3314,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -3334,16 +3403,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -3354,16 +3423,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -3374,16 +3443,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -3394,16 +3463,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3414,16 +3483,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -3434,16 +3503,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3454,16 +3523,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3474,16 +3543,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3494,16 +3563,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3514,16 +3583,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3534,16 +3603,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -3554,16 +3623,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -3574,16 +3643,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>

--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/)</t>
   </si>
   <si>
     <t xml:space="preserve">Lautaro Agustin</t>
@@ -655,13 +658,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -697,30 +700,36 @@
       <c r="I1" s="2" t="n">
         <v>45902</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -729,25 +738,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,25 +767,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,28 +796,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,25 +828,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,25 +857,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,25 +886,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,25 +915,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,25 +944,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,25 +973,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,25 +1002,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,24 +1031,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1018,25 +1060,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,25 +1089,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,25 +1118,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,25 +1147,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,25 +1176,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,25 +1205,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,25 +1234,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,25 +1263,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,25 +1292,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,25 +1321,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,25 +1350,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,25 +1379,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,24 +1408,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1356,25 +1437,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,6 +1477,10 @@
       <c r="I28" s="0" t="n">
         <f aca="false">COUNTIF(I2:I27,"P")</f>
         <v>22</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J27,"P")</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1413,11 +1501,11 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
@@ -1434,37 +1522,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="N1" s="2" t="n">
         <v>45874</v>
@@ -1475,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
@@ -1520,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6</v>
@@ -1565,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -1610,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6</v>
@@ -1650,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1658,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -1703,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1743,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -1796,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -1835,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -1844,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -1880,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -1925,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -1970,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -2015,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -2024,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -2060,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2105,7 +2193,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -2147,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -2192,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -2237,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2282,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -2291,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -2327,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -2372,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -2417,7 +2505,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2</v>
@@ -2456,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
@@ -2465,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -2501,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -2510,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -2546,7 +2634,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -2591,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -2600,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -2680,7 +2768,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
@@ -2694,19 +2782,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -2729,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">SUM(F3,D3,C3)</f>
@@ -2741,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -2756,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">SUM(F5,D5,C5)</f>
@@ -2768,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(F6,D6,C6)</f>
@@ -2780,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(F7,D7,C7)</f>
@@ -2792,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -2807,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">SUM(F9,D9,C9)</f>
@@ -2819,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -2828,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">SUM(F10,D10,C10)</f>
@@ -2840,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">SUM(F11,D11,C11)</f>
@@ -2852,7 +2940,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -2867,13 +2955,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(F13,D13,C13)</f>
@@ -2885,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -2900,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2918,7 +3006,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">SUM(F16,D16,C16)</f>
@@ -2930,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">SUM(F17,D17,C17)</f>
@@ -2942,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -2957,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2966,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">SUM(F19,D19,C19)</f>
@@ -2978,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -2993,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">SUM(F21,D21,C21)</f>
@@ -3005,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -3020,7 +3108,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -3029,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">SUM(F23,D23,C23)</f>
@@ -3041,7 +3129,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
@@ -3050,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3065,7 +3153,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -3086,7 +3174,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -3095,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">SUM(F26,D26,C26)</f>
@@ -3107,7 +3195,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">SUM(F27,D27,C27)</f>
@@ -3136,7 +3224,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
@@ -3150,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3181,16 +3269,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3201,16 +3289,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3221,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3232,16 +3320,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -3252,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3263,16 +3351,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -3283,16 +3371,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -3303,16 +3391,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3323,16 +3411,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -3343,16 +3431,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -3363,16 +3451,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3383,16 +3471,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -3403,16 +3491,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -3423,16 +3511,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -3443,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -3463,16 +3551,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3483,16 +3571,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -3503,16 +3591,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3523,16 +3611,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3543,16 +3631,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3563,16 +3651,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3583,16 +3671,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3603,16 +3691,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -3623,16 +3711,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -3643,16 +3731,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>

--- a/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
+++ b/inasistencias-6A-electronicaYsistDeComTP/Alumnos-6A-EletronicaYsistDeComTP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="125">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
-    <t xml:space="preserve">9/)</t>
+    <t xml:space="preserve">30/98</t>
   </si>
   <si>
     <t xml:space="preserve">Lautaro Agustin</t>
@@ -658,13 +658,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -700,7 +700,16 @@
       <c r="I1" s="2" t="n">
         <v>45902</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -732,6 +741,15 @@
       <c r="J2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -761,6 +779,15 @@
       <c r="J3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -788,6 +815,15 @@
         <v>9</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -822,6 +858,15 @@
       <c r="J5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -851,6 +896,15 @@
       <c r="J6" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -880,6 +934,15 @@
       <c r="J7" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="K7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -909,6 +972,15 @@
       <c r="J8" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -938,6 +1010,15 @@
       <c r="J9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -967,6 +1048,15 @@
       <c r="J10" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -994,6 +1084,15 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1025,6 +1124,15 @@
       <c r="J12" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1054,6 +1162,15 @@
       <c r="J13" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1083,6 +1200,15 @@
       <c r="J14" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1112,6 +1238,15 @@
       <c r="J15" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1141,6 +1276,15 @@
       <c r="J16" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1170,6 +1314,15 @@
       <c r="J17" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1199,6 +1352,15 @@
       <c r="J18" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1228,6 +1390,15 @@
       <c r="J19" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1257,6 +1428,15 @@
       <c r="J20" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1286,6 +1466,15 @@
       <c r="J21" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1315,6 +1504,15 @@
       <c r="J22" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1344,6 +1542,15 @@
       <c r="J23" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1373,6 +1580,15 @@
       <c r="J24" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1402,6 +1618,15 @@
       <c r="J25" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1431,6 +1656,15 @@
       <c r="J26" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1458,6 +1692,15 @@
         <v>9</v>
       </c>
       <c r="J27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1480,6 +1723,18 @@
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">COUNTIF(J2:J27,"P")</f>
+        <v>25</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K27,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L27,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M27,"P")</f>
         <v>25</v>
       </c>
     </row>
@@ -1501,17 +1756,17 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N1:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="6" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +3020,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="N1:N28 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.67"/>
@@ -3221,10 +3476,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="N1:N28 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
